--- a/ig/sd-page-title-type-link-ko/all-profiles.xlsx
+++ b/ig/sd-page-title-type-link-ko/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T13:46:33+00:00</t>
+    <t>2023-08-23T14:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1815,7 +1815,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/title-type</t>
+    <t>https://hl7.org/fhir/valueset-title-type.html</t>
   </si>
   <si>
     <t>Extension.extension:labelValue</t>

--- a/ig/sd-page-title-type-link-ko/all-profiles.xlsx
+++ b/ig/sd-page-title-type-link-ko/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T14:14:43+00:00</t>
+    <t>2023-08-23T16:24:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1815,7 +1815,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/valueset-title-type.html</t>
+    <t>http://hl7.org/fhir/ValueSet/title-type</t>
   </si>
   <si>
     <t>Extension.extension:labelValue</t>

--- a/ig/sd-page-title-type-link-ko/all-profiles.xlsx
+++ b/ig/sd-page-title-type-link-ko/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T16:24:38+00:00</t>
+    <t>2023-08-24T10:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1815,7 +1815,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/title-type</t>
+    <t>http://hl7.org/fhir/ValueSet/title-type|4.3.0</t>
   </si>
   <si>
     <t>Extension.extension:labelValue</t>

--- a/ig/sd-page-title-type-link-ko/all-profiles.xlsx
+++ b/ig/sd-page-title-type-link-ko/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T10:02:50+00:00</t>
+    <t>2023-08-24T12:20:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1815,7 +1815,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/title-type|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/title-type</t>
   </si>
   <si>
     <t>Extension.extension:labelValue</t>
